--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corbin/Documents/GitHub/RotatingMirror/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19016\Documents\Github\RotatingMirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A035F457-8508-6647-AD78-FCE38910BC69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8222214-7A12-4367-A3F2-F0546CC26E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{BD642745-4F03-C046-B85D-5FCAB931A52C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BD642745-4F03-C046-B85D-5FCAB931A52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,8 +34,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve">Dot Distance </t>
   </si>
@@ -48,12 +69,84 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>sigma x</t>
+  </si>
+  <si>
+    <t>simga</t>
+  </si>
+  <si>
+    <t>1/sigma</t>
+  </si>
+  <si>
+    <t>x/sigma</t>
+  </si>
+  <si>
+    <t>y/sigma</t>
+  </si>
+  <si>
+    <t>chi^2</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>epsilon</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>reduced chi^2</t>
+  </si>
+  <si>
+    <t>sigma y</t>
+  </si>
+  <si>
+    <t>scaling factor</t>
+  </si>
+  <si>
+    <t>Measurement of C</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>Accepted Value</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>MSD</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>8pi*MR*MSD*f/(p-p_0)</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -83,8 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,6 +197,1017 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>787</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>864</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1030</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D5F-4B6C-8C39-891E523DD9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$22:$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$22:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1210.7239209343024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>125.65904169332862</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9D5F-4B6C-8C39-891E523DD9B8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1622365120"/>
+        <c:axId val="1622363456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1622365120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6"/>
+          <c:min val="4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622363456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1622363456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622365120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130BBDF7-323B-4515-9154-36F92BE8881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,137 +1507,657 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA56AD-68BD-444D-81E6-4ED9B0B9A6BA}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0.05</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="D1">
+        <f>0.01*120</f>
+        <v>1.2</v>
+      </c>
+      <c r="F1">
+        <v>0.05</v>
+      </c>
+      <c r="G1">
+        <v>0.5</v>
+      </c>
+      <c r="J1">
+        <v>-542.53243962049419</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" cm="1">
+        <f t="array" ref="Q2:R3">MMULT(TRANSPOSE(K3:L10),K3:L10)</f>
+        <v>6.9243176832463931</v>
+      </c>
+      <c r="R2">
+        <v>35.553617156853491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3">
         <v>5.72</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>230</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>0.2</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D9" si="0">120*C2</f>
+      <c r="D3">
+        <f t="shared" ref="D3:D10" si="0">120*C3</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="F3">
+        <f>A3</f>
+        <v>5.72</v>
+      </c>
+      <c r="G3">
+        <f>B3</f>
+        <v>230</v>
+      </c>
+      <c r="H3">
+        <f>SQRT(((1/(F3^2))*$F$1)^2)</f>
+        <v>1.5281920876326473E-3</v>
+      </c>
+      <c r="I3">
+        <f>SQRT(((1/(G3^2))*$G$1)^2)</f>
+        <v>9.451795841209829E-6</v>
+      </c>
+      <c r="J3">
+        <f>SQRT(I3^2+($J$1*H3)^2)</f>
+        <v>0.82909378156595204</v>
+      </c>
+      <c r="K3">
+        <f>1/J3</f>
+        <v>1.2061361720880943</v>
+      </c>
+      <c r="L3">
+        <f>F3*K3</f>
+        <v>6.8990989043438988</v>
+      </c>
+      <c r="M3">
+        <f>G3*K3</f>
+        <v>277.4113195802617</v>
+      </c>
+      <c r="N3" s="2">
+        <f>J3*(G3-Q$11-Q$12*F3)^2</f>
+        <v>1876.0124670173186</v>
+      </c>
+      <c r="Q3">
+        <v>35.553617156853491</v>
+      </c>
+      <c r="R3">
+        <v>184.07560210238694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>5.46</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>420</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="F4">
+        <f t="shared" ref="F4:F10" si="1">A4</f>
+        <v>5.46</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="2">B4</f>
+        <v>420</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H10" si="3">SQRT(((1/(F4^2))*$F$1)^2)</f>
+        <v>1.6771994793972817E-3</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="4">SQRT(((1/(G4^2))*$G$1)^2)</f>
+        <v>2.834467120181406E-6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J9" si="5">SQRT(I4^2+($J$1*H4)^2)</f>
+        <v>0.90993512529204468</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="6">1/J4</f>
+        <v>1.0989794461215561</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="7">F4*K4</f>
+        <v>6.0004277758236961</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M10" si="8">G4*K4</f>
+        <v>461.57136737105355</v>
+      </c>
+      <c r="N4" s="2">
+        <f>J4*(G4-Q$11-Q$12*F4)^2</f>
+        <v>1.7164469675355107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>5.34</v>
       </c>
-      <c r="B4">
-        <v>51</v>
-      </c>
-      <c r="C4">
+      <c r="B5">
+        <v>571</v>
+      </c>
+      <c r="C5">
         <v>0.4</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>5.34</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>571</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>1.7534261947846092E-3</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>1.5335494615707841E-6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.95129059115221004</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1.0512035011181944</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="7"/>
+        <v>5.6134266959711576</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="8"/>
+        <v>600.23719913848902</v>
+      </c>
+      <c r="N5" s="2">
+        <f>J5*(G5-Q$11-Q$12*F5)^2</f>
+        <v>7245.0044424812104</v>
+      </c>
+      <c r="P5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q5" cm="1">
+        <f t="array" ref="Q5:Q6">MMULT(TRANSPOSE(K3:L10),M3:M10)</f>
+        <v>4121.1142634101534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="B6">
+        <v>684</v>
+      </c>
+      <c r="C6">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>77</v>
-      </c>
-      <c r="C6">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>684</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>1.9840954905477695E-3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>1.0687049006531924E-6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>1.0764361669274332</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>0.92899145413739515</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="7"/>
+        <v>4.663537099769723</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="8"/>
+        <v>635.43015462997823</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" ref="N4:N10" si="9">J6*(G6-Q$11-Q$12*F6)^2</f>
+        <v>765.035251386303</v>
+      </c>
+      <c r="Q6">
+        <v>20334.591898087358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="B7">
+        <v>787</v>
+      </c>
+      <c r="C7">
         <v>0.6</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>41</v>
-      </c>
-      <c r="C7">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>787</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>2.3124060585038731E-3</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>8.0727320870111351E-7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>1.2545553003135772</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.79709519361167191</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="7"/>
+        <v>3.7064926502942748</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="8"/>
+        <v>627.31391737238584</v>
+      </c>
+      <c r="N7" s="2">
+        <f t="shared" si="9"/>
+        <v>6338.0869618900851</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4.55</v>
+      </c>
+      <c r="B8">
+        <v>864</v>
+      </c>
+      <c r="C8">
         <v>0.7</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8">
-        <v>34</v>
-      </c>
-      <c r="C8">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.55</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>864</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>2.415167250332086E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>6.6979595336076813E-7</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>1.3103065804143585</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>0.76318017092135015</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>3.4724697776921429</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="8"/>
+        <v>659.38766767604648</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="9"/>
+        <v>3060.7362456892643</v>
+      </c>
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" cm="1">
+        <f t="array" ref="Q8:R9">MINVERSE(_xlfn.ANCHORARRAY(Q2))</f>
+        <v>17.46737233416945</v>
+      </c>
+      <c r="R8">
+        <v>-3.3737674173671603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4.5</v>
+      </c>
+      <c r="B9">
+        <v>934</v>
+      </c>
+      <c r="C9">
         <v>0.8</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B9">
-        <v>34</v>
-      </c>
-      <c r="C9">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>934</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>2.4691358024691358E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>5.7316049869548672E-7</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>1.3395862706680095</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>0.74649914073942503</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>3.3592461333274128</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>697.230197450623</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="9"/>
+        <v>39.901588540410749</v>
+      </c>
+      <c r="Q9">
+        <v>-3.3737674173671603</v>
+      </c>
+      <c r="R9">
+        <v>0.6570649980330554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4.42</v>
+      </c>
+      <c r="B10">
+        <v>1030</v>
+      </c>
+      <c r="C10">
         <v>0.9</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>4.42</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>1030</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>2.5593251571425649E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
+        <v>4.712979545668772E-7</v>
+      </c>
+      <c r="J10">
+        <f>SQRT(I10^2+($J$1*H10)^2)</f>
+        <v>1.3885169212867403</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>0.72019287966134315</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>3.1832525281031367</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="8"/>
+        <v>741.79866605118343</v>
+      </c>
+      <c r="N10" s="2">
+        <f t="shared" si="9"/>
+        <v>3085.4951892371814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q11" cm="1">
+        <f t="array" ref="Q11:Q12">MMULT(_xlfn.ANCHORARRAY(Q8),_xlfn.ANCHORARRAY(Q5))</f>
+        <v>3380.8536794162501</v>
+      </c>
+      <c r="R11">
+        <f>SQRT(Q8)</f>
+        <v>4.1793985612967628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="Q12">
+        <v>-542.53243962048691</v>
+      </c>
+      <c r="R12">
+        <f>SQRT(R9)</f>
+        <v>0.8105954589269887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14">
+        <f>+SUM(N3:N10)/(COUNT(N3:N10)-2)</f>
+        <v>3735.3314322015522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="P16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <f>SQRT(Q14)</f>
+        <v>61.11735786338896</v>
+      </c>
+    </row>
+    <row r="22" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="P22">
+        <v>4</v>
+      </c>
+      <c r="Q22">
+        <f>P22*Q12+Q11</f>
+        <v>1210.7239209343024</v>
+      </c>
+    </row>
+    <row r="23" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="P23">
+        <v>6</v>
+      </c>
+      <c r="Q23">
+        <f>P23*Q12+Q11</f>
+        <v>125.65904169332862</v>
+      </c>
+    </row>
+    <row r="25" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="26" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O26" t="s">
+        <v>22</v>
+      </c>
+      <c r="P26">
+        <f>2*P25</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="27" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O27" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27">
+        <f>2*P25</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="28" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P28">
+        <f>8*3.14159*P26*P27*Q11</f>
+        <v>7668546.9119378887</v>
+      </c>
+    </row>
+    <row r="29" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P30">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="31" spans="15:17" x14ac:dyDescent="0.35">
+      <c r="O31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31">
+        <f>P30-P28</f>
+        <v>292123911.08806211</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataAnalysis.xlsx
+++ b/DataAnalysis.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19016\Documents\Github\RotatingMirror\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8222214-7A12-4367-A3F2-F0546CC26E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35638B5C-AF79-4301-8A93-81ED43D21D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{BD642745-4F03-C046-B85D-5FCAB931A52C}"/>
+    <workbookView xWindow="57480" yWindow="4980" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{BD642745-4F03-C046-B85D-5FCAB931A52C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="First Attempt" sheetId="1" r:id="rId1"/>
+    <sheet name="Redo" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
   <si>
     <t xml:space="preserve">Dot Distance </t>
   </si>
@@ -125,29 +126,57 @@
     <t>Accepted Value</t>
   </si>
   <si>
-    <t>MR</t>
+    <t>Diff</t>
   </si>
   <si>
-    <t>MSD</t>
+    <t>8*pi*l^2*f/x</t>
   </si>
   <si>
-    <t>f</t>
+    <t>l</t>
   </si>
   <si>
-    <t>8pi*MR*MSD*f/(p-p_0)</t>
+    <t>Adj Dot Dis</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>y=mx+b</t>
+  </si>
+  <si>
+    <t>x=y-b/m</t>
+  </si>
+  <si>
+    <t>Hz Corrected</t>
+  </si>
+  <si>
+    <t>% Error</t>
+  </si>
+  <si>
+    <t>Calculating Sigma x</t>
+  </si>
+  <si>
+    <t>Fit Line</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000E+00"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="172" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,17 +202,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -276,40 +315,40 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:f>'First Attempt'!$A$3:$A$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5.72</c:v>
+                  <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5.46</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.34</c:v>
+                  <c:v>5.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0199999999999996</c:v>
+                  <c:v>4.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.6500000000000004</c:v>
+                  <c:v>4.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>4.55</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5</c:v>
+                  <c:v>4.5199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.42</c:v>
+                  <c:v>4.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:f>'First Attempt'!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -388,7 +427,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$P$22:$P$23</c:f>
+              <c:f>'First Attempt'!$R$22:$R$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -403,15 +442,15 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$Q$22:$Q$23</c:f>
+              <c:f>'First Attempt'!$S$22:$S$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1210.7239209343024</c:v>
+                  <c:v>1212.9265283810892</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125.65904169332862</c:v>
+                  <c:v>84.603182917035156</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -613,7 +652,1147 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'First Attempt'!$X$3:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>285.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'First Attempt'!$Y$3:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>5.6900000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4599999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9199999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5500000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5199999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3699999999999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39A3-45FA-B42F-B7F620F511A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'First Attempt'!$AH$22:$AH$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'First Attempt'!$AI$22:$AI$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.7868351514583707E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2986695614692511E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-39A3-45FA-B42F-B7F620F511A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1435310495"/>
+        <c:axId val="1435309663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1435310495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435309663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1435309663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1435310495"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>x/f</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Redo!$AB$4:$AB$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.7307828253851672E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4365620551124944E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.302738100652471E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2601880592920605E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.305350866100301E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4416286093855674E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6591056477655203E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Redo!$AB$4:$AB$10</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>4.7307828253851672E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.4365620551124944E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>4.302738100652471E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4.2601880592920605E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.305350866100301E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4416286093855674E-5</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.6591056477655203E-5</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Redo!$X$4:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>285.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>393.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Redo!$Y$4:$Y$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000063E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.900000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.700000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9000000000000021E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1200000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1900000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3500000000000005E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-64E1-4B73-8F59-7B6DACD09EE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trend Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="0"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst>
+                <a:glow>
+                  <a:schemeClr val="bg1">
+                    <a:alpha val="0"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Redo!$AH$30:$AH$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Redo!$AI$30:$AI$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.0263257439149195E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5315483033446686E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-64E1-4B73-8F59-7B6DACD09EE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1444214927"/>
+        <c:axId val="1444215759"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1444214927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="550"/>
+          <c:min val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Rotational</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Frequency [Hz]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444215759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1444215759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Displacement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [m]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1444214927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1169,20 +2348,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>755650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1190,6 +3401,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130BBDF7-323B-4515-9154-36F92BE8881C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E5C3914-129E-9D20-C11F-509786985EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>859895</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>58210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80C0549-A6FC-2B66-A7B3-A88236168251}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,652 +3795,1162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FA56AD-68BD-444D-81E6-4ED9B0B9A6BA}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27:R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0.05</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>0.5</v>
       </c>
-      <c r="C1">
+      <c r="E1">
         <f>0.01</f>
         <v>0.01</v>
       </c>
-      <c r="D1">
+      <c r="F1">
         <f>0.01*120</f>
         <v>1.2</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>0.05</v>
       </c>
-      <c r="G1">
+      <c r="I1">
         <v>0.5</v>
       </c>
-      <c r="J1">
-        <v>-542.53243962049419</v>
+      <c r="L1">
+        <v>-564.16167273190331</v>
+      </c>
+      <c r="X1">
+        <v>0.05</v>
+      </c>
+      <c r="Y1">
+        <v>0.5</v>
+      </c>
+      <c r="AB1">
+        <v>-1.8858891862411168E-6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>7</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" cm="1">
-        <f t="array" ref="Q2:R3">MMULT(TRANSPOSE(K3:L10),K3:L10)</f>
-        <v>6.9243176832463931</v>
-      </c>
-      <c r="R2">
-        <v>35.553617156853491</v>
+      <c r="S2" cm="1">
+        <f t="array" ref="S2:T3">MMULT(TRANSPOSE(M3:N10),M3:N10)</f>
+        <v>6.2243737506022976</v>
+      </c>
+      <c r="T2">
+        <v>31.702584509274249</v>
+      </c>
+      <c r="X2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" cm="1">
+        <f t="array" ref="AI2:AJ3">MMULT(TRANSPOSE(AC3:AD10),AC3:AD10)</f>
+        <v>1.9810836746999999E-8</v>
+      </c>
+      <c r="AJ2">
+        <v>5.9049193487877587E-6</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>5.72</v>
+        <v>5.69</v>
       </c>
       <c r="B3">
+        <f>(A3)/1000</f>
+        <v>5.6900000000000006E-3</v>
+      </c>
+      <c r="C3">
         <v>230</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <f>C3/2</f>
+        <v>115</v>
+      </c>
+      <c r="E3">
         <v>0.2</v>
       </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">120*C3</f>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">120*E3</f>
         <v>24</v>
       </c>
-      <c r="F3">
-        <f>A3</f>
-        <v>5.72</v>
-      </c>
-      <c r="G3">
-        <f>B3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="1">A3</f>
+        <v>5.69</v>
+      </c>
+      <c r="I3">
+        <f>C3</f>
         <v>230</v>
       </c>
-      <c r="H3">
-        <f>SQRT(((1/(F3^2))*$F$1)^2)</f>
-        <v>1.5281920876326473E-3</v>
-      </c>
-      <c r="I3">
-        <f>SQRT(((1/(G3^2))*$G$1)^2)</f>
+      <c r="J3">
+        <f>SQRT(((1/(H3^2))*$H$1)^2)</f>
+        <v>1.5443490723095123E-3</v>
+      </c>
+      <c r="K3">
+        <f>SQRT(((1/(I3^2))*$I$1)^2)</f>
         <v>9.451795841209829E-6</v>
       </c>
-      <c r="J3">
-        <f>SQRT(I3^2+($J$1*H3)^2)</f>
-        <v>0.82909378156595204</v>
-      </c>
-      <c r="K3">
-        <f>1/J3</f>
-        <v>1.2061361720880943</v>
-      </c>
       <c r="L3">
-        <f>F3*K3</f>
-        <v>6.8990989043438988</v>
+        <f>SQRT(K3^2+($L$1*J3)^2)</f>
+        <v>0.87126255596736601</v>
       </c>
       <c r="M3">
-        <f>G3*K3</f>
-        <v>277.4113195802617</v>
-      </c>
-      <c r="N3" s="2">
-        <f>J3*(G3-Q$11-Q$12*F3)^2</f>
-        <v>1876.0124670173186</v>
-      </c>
-      <c r="Q3">
-        <v>35.553617156853491</v>
-      </c>
-      <c r="R3">
-        <v>184.07560210238694</v>
+        <f>1/L3</f>
+        <v>1.1477596427746126</v>
+      </c>
+      <c r="N3">
+        <f>H3*M3</f>
+        <v>6.5307523673875458</v>
+      </c>
+      <c r="O3">
+        <f>I3*M3</f>
+        <v>263.98471783816092</v>
+      </c>
+      <c r="P3" s="2">
+        <f>L3*(I3-S$11-S$12*H3)^2</f>
+        <v>757.87194359039734</v>
+      </c>
+      <c r="S3">
+        <v>31.702584509274249</v>
+      </c>
+      <c r="T3">
+        <v>162.78854349698386</v>
+      </c>
+      <c r="X3">
+        <f>D3</f>
+        <v>115</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y10" si="2">B3</f>
+        <v>5.6900000000000006E-3</v>
+      </c>
+      <c r="Z3">
+        <f>SQRT(((1/(X3^2))*$H$1)^2)</f>
+        <v>3.7807183364839316E-6</v>
+      </c>
+      <c r="AA3">
+        <f>SQRT(((1/(Y3^2))*$I$1)^2)</f>
+        <v>15443.490723095118</v>
+      </c>
+      <c r="AB3">
+        <f>SQRT(AA3^2+($AB$1*Z3)^2)</f>
+        <v>15443.490723095118</v>
+      </c>
+      <c r="AC3">
+        <f>1/AB3</f>
+        <v>6.475220000000002E-5</v>
+      </c>
+      <c r="AD3">
+        <f>X3*AC3</f>
+        <v>7.4465030000000019E-3</v>
+      </c>
+      <c r="AE3">
+        <f>Y3*AC3</f>
+        <v>3.6844001800000015E-7</v>
+      </c>
+      <c r="AF3" s="2">
+        <f>AB3*(Y3-AI$11-AI$12*X3)^2</f>
+        <v>3.032365257273029E-5</v>
+      </c>
+      <c r="AI3">
+        <v>5.9049193487877587E-6</v>
+      </c>
+      <c r="AJ3">
+        <v>2.0979508712111244E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>5.46</v>
       </c>
       <c r="B4">
+        <f>(A4)/1000</f>
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="C4">
         <v>420</v>
       </c>
-      <c r="C4">
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="3">C4/2</f>
+        <v>210</v>
+      </c>
+      <c r="E4">
         <v>0.3</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F4">
-        <f t="shared" ref="F4:F10" si="1">A4</f>
+      <c r="H4">
+        <f t="shared" si="1"/>
         <v>5.46</v>
       </c>
-      <c r="G4">
-        <f t="shared" ref="G4:G10" si="2">B4</f>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="4">C4</f>
         <v>420</v>
       </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H10" si="3">SQRT(((1/(F4^2))*$F$1)^2)</f>
+      <c r="J4">
+        <f t="shared" ref="J4:J10" si="5">SQRT(((1/(H4^2))*$H$1)^2)</f>
         <v>1.6771994793972817E-3</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I10" si="4">SQRT(((1/(G4^2))*$G$1)^2)</f>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="6">SQRT(((1/(I4^2))*$I$1)^2)</f>
         <v>2.834467120181406E-6</v>
       </c>
-      <c r="J4">
-        <f t="shared" ref="J4:J9" si="5">SQRT(I4^2+($J$1*H4)^2)</f>
-        <v>0.90993512529204468</v>
-      </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K10" si="6">1/J4</f>
-        <v>1.0989794461215561</v>
-      </c>
       <c r="L4">
-        <f t="shared" ref="L4:L10" si="7">F4*K4</f>
-        <v>6.0004277758236961</v>
+        <f t="shared" ref="L4:L9" si="7">SQRT(K4^2+($L$1*J4)^2)</f>
+        <v>0.94621166380609334</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M10" si="8">G4*K4</f>
-        <v>461.57136737105355</v>
-      </c>
-      <c r="N4" s="2">
-        <f>J4*(G4-Q$11-Q$12*F4)^2</f>
-        <v>1.7164469675355107</v>
+        <f t="shared" ref="M4:M10" si="8">1/L4</f>
+        <v>1.0568459872683724</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N10" si="9">H4*M4</f>
+        <v>5.7703790904853136</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O10" si="10">I4*M4</f>
+        <v>443.87531465271644</v>
+      </c>
+      <c r="P4" s="2">
+        <f>L4*(I4-S$11-S$12*H4)^2</f>
+        <v>894.67397406883629</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X10" si="11">D4</f>
+        <v>210</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="2"/>
+        <v>5.4599999999999996E-3</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z10" si="12">SQRT(((1/(X4^2))*$H$1)^2)</f>
+        <v>1.1337868480725623E-6</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA10" si="13">SQRT(((1/(Y4^2))*$I$1)^2)</f>
+        <v>16771.994793972819</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB10" si="14">SQRT(AA4^2+($AB$1*Z4)^2)</f>
+        <v>16771.994793972819</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC10" si="15">1/AB4</f>
+        <v>5.9623199999999988E-5</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD10" si="16">X4*AC4</f>
+        <v>1.2520871999999997E-2</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE10" si="17">Y4*AC4</f>
+        <v>3.2554267199999989E-7</v>
+      </c>
+      <c r="AF4" s="2">
+        <f t="shared" ref="AF4:AF10" si="18">AB4*(Y4-AI$11-AI$12*X4)^2</f>
+        <v>5.7078778740333474E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>5.34</v>
+        <v>5.2</v>
       </c>
       <c r="B5">
+        <f t="shared" ref="B5:B10" si="19">(A5)/1000</f>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="C5">
         <v>571</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>285.5</v>
+      </c>
+      <c r="E5">
         <v>0.4</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="F5">
+      <c r="H5">
         <f t="shared" si="1"/>
-        <v>5.34</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>571</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="3"/>
-        <v>1.7534261947846092E-3</v>
+        <v>5.2</v>
       </c>
       <c r="I5">
         <f t="shared" si="4"/>
-        <v>1.5335494615707841E-6</v>
+        <v>571</v>
       </c>
       <c r="J5">
         <f t="shared" si="5"/>
-        <v>0.95129059115221004</v>
+        <v>1.8491124260355029E-3</v>
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
-        <v>1.0512035011181944</v>
+        <v>1.5335494615707841E-6</v>
       </c>
       <c r="L5">
         <f t="shared" si="7"/>
-        <v>5.6134266959711576</v>
+        <v>1.0431983593426641</v>
       </c>
       <c r="M5">
         <f t="shared" si="8"/>
-        <v>600.23719913848902</v>
-      </c>
-      <c r="N5" s="2">
-        <f>J5*(G5-Q$11-Q$12*F5)^2</f>
-        <v>7245.0044424812104</v>
-      </c>
-      <c r="P5" t="s">
+        <v>0.95859046464578024</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="9"/>
+        <v>4.9846704161580577</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="10"/>
+        <v>547.35515531274052</v>
+      </c>
+      <c r="P5" s="2">
+        <f>L5*(I5-S$11-S$12*H5)^2</f>
+        <v>1282.8503115457456</v>
+      </c>
+      <c r="R5" t="s">
         <v>13</v>
       </c>
-      <c r="Q5" cm="1">
-        <f t="array" ref="Q5:Q6">MMULT(TRANSPOSE(K3:L10),M3:M10)</f>
-        <v>4121.1142634101534</v>
+      <c r="S5" cm="1">
+        <f t="array" ref="S5:S6">MMULT(TRANSPOSE(M3:N10),O3:O10)</f>
+        <v>3710.5373653803235</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="11"/>
+        <v>285.5</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="2"/>
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="12"/>
+        <v>6.1341978462831369E-7</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="13"/>
+        <v>18491.124260355031</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="14"/>
+        <v>18491.124260355031</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="15"/>
+        <v>5.4079999999999997E-5</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="16"/>
+        <v>1.543984E-2</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="17"/>
+        <v>2.8121599999999997E-7</v>
+      </c>
+      <c r="AF5" s="2">
+        <f t="shared" si="18"/>
+        <v>7.2706398794010447E-5</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" cm="1">
+        <f t="array" ref="AI5:AI6">MMULT(TRANSPOSE(AC3:AD10),AE3:AE10)</f>
+        <v>1.0090247651216838E-10</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>5.0199999999999996</v>
+        <v>4.92</v>
       </c>
       <c r="B6">
+        <f t="shared" si="19"/>
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="C6">
         <v>684</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <f t="shared" si="3"/>
+        <v>342</v>
+      </c>
+      <c r="E6">
         <v>0.5</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="H6">
         <f t="shared" si="1"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>684</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="3"/>
-        <v>1.9840954905477695E-3</v>
+        <v>4.92</v>
       </c>
       <c r="I6">
         <f t="shared" si="4"/>
-        <v>1.0687049006531924E-6</v>
+        <v>684</v>
       </c>
       <c r="J6">
         <f t="shared" si="5"/>
-        <v>1.0764361669274332</v>
+        <v>2.0655694361821669E-3</v>
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
-        <v>0.92899145413739515</v>
+        <v>1.0687049006531924E-6</v>
       </c>
       <c r="L6">
         <f t="shared" si="7"/>
-        <v>4.663537099769723</v>
+        <v>1.1653151082609157</v>
       </c>
       <c r="M6">
         <f t="shared" si="8"/>
-        <v>635.43015462997823</v>
-      </c>
-      <c r="N6" s="2">
-        <f t="shared" ref="N4:N10" si="9">J6*(G6-Q$11-Q$12*F6)^2</f>
-        <v>765.035251386303</v>
-      </c>
-      <c r="Q6">
-        <v>20334.591898087358</v>
+        <v>0.8581369905109808</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="9"/>
+        <v>4.2220339933140254</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="10"/>
+        <v>586.96570150951084</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ref="P6:P10" si="20">L6*(I6-S$11-S$12*H6)^2</f>
+        <v>114.16153531277658</v>
+      </c>
+      <c r="S6">
+        <v>18155.381195396076</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="11"/>
+        <v>342</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="2"/>
+        <v>4.9199999999999999E-3</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="12"/>
+        <v>4.2748196026127698E-7</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="13"/>
+        <v>20655.694361821668</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="14"/>
+        <v>20655.694361821668</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="15"/>
+        <v>4.8412799999999998E-5</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="16"/>
+        <v>1.65571776E-2</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="17"/>
+        <v>2.3819097599999998E-7</v>
+      </c>
+      <c r="AF6" s="2">
+        <f t="shared" si="18"/>
+        <v>7.8190485382321875E-6</v>
+      </c>
+      <c r="AI6">
+        <v>2.889232775439429E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>4.6500000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="B7">
+        <f t="shared" si="19"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="C7">
         <v>787</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>393.5</v>
+      </c>
+      <c r="E7">
         <v>0.6</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <f t="shared" si="1"/>
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>787</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="3"/>
-        <v>2.3124060585038731E-3</v>
+        <v>4.7</v>
       </c>
       <c r="I7">
         <f t="shared" si="4"/>
-        <v>8.0727320870111351E-7</v>
+        <v>787</v>
       </c>
       <c r="J7">
         <f t="shared" si="5"/>
-        <v>1.2545553003135772</v>
+        <v>2.2634676324128559E-3</v>
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
-        <v>0.79709519361167191</v>
+        <v>8.0727320870111351E-7</v>
       </c>
       <c r="L7">
         <f t="shared" si="7"/>
-        <v>3.7064926502942748</v>
+        <v>1.2769616856768127</v>
       </c>
       <c r="M7">
         <f t="shared" si="8"/>
-        <v>627.31391737238584</v>
-      </c>
-      <c r="N7" s="2">
+        <v>0.78310885222055981</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="9"/>
-        <v>6338.0869618900851</v>
+        <v>3.6806116054366314</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="10"/>
+        <v>616.30666669758057</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" si="20"/>
+        <v>1228.2179402674203</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="11"/>
+        <v>393.5</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="2"/>
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="12"/>
+        <v>3.2290928348044542E-7</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="13"/>
+        <v>22634.676324128566</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="14"/>
+        <v>22634.676324128566</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="15"/>
+        <v>4.4180000000000001E-5</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="16"/>
+        <v>1.738483E-2</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="17"/>
+        <v>2.0764600000000001E-7</v>
+      </c>
+      <c r="AF7" s="2">
+        <f t="shared" si="18"/>
+        <v>7.9126869315557284E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>4.55</v>
       </c>
       <c r="B8">
+        <f t="shared" si="19"/>
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="C8">
         <v>864</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="E8">
         <v>0.7</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F8">
+      <c r="H8">
         <f t="shared" si="1"/>
         <v>4.55</v>
       </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>864</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="3"/>
-        <v>2.415167250332086E-3</v>
-      </c>
       <c r="I8">
         <f t="shared" si="4"/>
-        <v>6.6979595336076813E-7</v>
+        <v>864</v>
       </c>
       <c r="J8">
         <f t="shared" si="5"/>
-        <v>1.3103065804143585</v>
+        <v>2.415167250332086E-3</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
-        <v>0.76318017092135015</v>
+        <v>6.6979595336076813E-7</v>
       </c>
       <c r="L8">
         <f t="shared" si="7"/>
-        <v>3.4724697776921429</v>
+        <v>1.3625447958748256</v>
       </c>
       <c r="M8">
         <f t="shared" si="8"/>
-        <v>659.38766767604648</v>
-      </c>
-      <c r="N8" s="2">
+        <v>0.73392082449512952</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="9"/>
-        <v>3060.7362456892643</v>
-      </c>
-      <c r="P8" t="s">
+        <v>3.3393397514528393</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="10"/>
+        <v>634.10759236379192</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" si="20"/>
+        <v>2034.0951385802541</v>
+      </c>
+      <c r="R8" t="s">
         <v>14</v>
       </c>
-      <c r="Q8" cm="1">
-        <f t="array" ref="Q8:R9">MINVERSE(_xlfn.ANCHORARRAY(Q2))</f>
-        <v>17.46737233416945</v>
-      </c>
-      <c r="R8">
-        <v>-3.3737674173671603</v>
+      <c r="S8" cm="1">
+        <f t="array" ref="S8:T9">MINVERSE(_xlfn.ANCHORARRAY(S2))</f>
+        <v>19.845309556901935</v>
+      </c>
+      <c r="T8">
+        <v>-3.8648149914311891</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="11"/>
+        <v>432</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="2"/>
+        <v>4.5500000000000002E-3</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="12"/>
+        <v>2.6791838134430728E-7</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="13"/>
+        <v>24151.672503320853</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="14"/>
+        <v>24151.672503320853</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="15"/>
+        <v>4.1405000000000001E-5</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="16"/>
+        <v>1.788696E-2</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="17"/>
+        <v>1.8839275E-7</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" si="18"/>
+        <v>1.3338365349001042E-4</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" cm="1">
+        <f t="array" ref="AI8:AJ9">MINVERSE(_xlfn.ANCHORARRAY(AI2))</f>
+        <v>313403459.78922004</v>
+      </c>
+      <c r="AJ8">
+        <v>-882109.38543953979</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B9">
+        <f t="shared" si="19"/>
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="C9">
         <v>934</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>467</v>
+      </c>
+      <c r="E9">
         <v>0.8</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="F9">
+      <c r="H9">
         <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>934</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="3"/>
-        <v>2.4691358024691358E-3</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="I9">
         <f t="shared" si="4"/>
-        <v>5.7316049869548672E-7</v>
+        <v>934</v>
       </c>
       <c r="J9">
         <f t="shared" si="5"/>
-        <v>1.3395862706680095</v>
+        <v>2.4473333855431129E-3</v>
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
-        <v>0.74649914073942503</v>
+        <v>5.7316049869548672E-7</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.3592461333274128</v>
+        <v>1.3806916965207534</v>
       </c>
       <c r="M9">
         <f t="shared" si="8"/>
-        <v>697.230197450623</v>
-      </c>
-      <c r="N9" s="2">
+        <v>0.72427465343633923</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="9"/>
-        <v>39.901588540410749</v>
-      </c>
-      <c r="Q9">
-        <v>-3.3737674173671603</v>
-      </c>
-      <c r="R9">
-        <v>0.6570649980330554</v>
+        <v>3.2737214335322529</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="10"/>
+        <v>676.47252630954085</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="20"/>
+        <v>287.79497091356234</v>
+      </c>
+      <c r="S9">
+        <v>-3.8648149914311891</v>
+      </c>
+      <c r="T9">
+        <v>0.75880415921803468</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="11"/>
+        <v>467</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="2"/>
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="12"/>
+        <v>2.2926419947819469E-7</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="13"/>
+        <v>24473.333855431127</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="14"/>
+        <v>24473.333855431127</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="15"/>
+        <v>4.0860799999999993E-5</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="16"/>
+        <v>1.9081993599999996E-2</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="17"/>
+        <v>1.8469081599999996E-7</v>
+      </c>
+      <c r="AF9" s="2">
+        <f t="shared" si="18"/>
+        <v>8.1418668561056741E-6</v>
+      </c>
+      <c r="AI9">
+        <v>-882109.38543953968</v>
+      </c>
+      <c r="AJ9">
+        <v>2959.4519409527225</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>4.42</v>
+        <v>4.37</v>
       </c>
       <c r="B10">
+        <f t="shared" si="19"/>
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="C10">
         <v>1030</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <f t="shared" si="3"/>
+        <v>515</v>
+      </c>
+      <c r="E10">
         <v>0.9</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <f t="shared" si="1"/>
-        <v>4.42</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1030</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="3"/>
-        <v>2.5593251571425649E-3</v>
+        <v>4.37</v>
       </c>
       <c r="I10">
         <f t="shared" si="4"/>
-        <v>4.712979545668772E-7</v>
+        <v>1030</v>
       </c>
       <c r="J10">
-        <f>SQRT(I10^2+($J$1*H10)^2)</f>
-        <v>1.3885169212867403</v>
+        <f t="shared" si="5"/>
+        <v>2.618225994794967E-3</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
-        <v>0.72019287966134315</v>
+        <v>4.712979545668772E-7</v>
       </c>
       <c r="L10">
-        <f t="shared" si="7"/>
-        <v>3.1832525281031367</v>
+        <f>SQRT(K10^2+($L$1*J10)^2)</f>
+        <v>1.4771027568137551</v>
       </c>
       <c r="M10">
         <f t="shared" si="8"/>
-        <v>741.79866605118343</v>
-      </c>
-      <c r="N10" s="2">
+        <v>0.6770009705736999</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="9"/>
-        <v>3085.4951892371814</v>
+        <v>2.9584942414070685</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="10"/>
+        <v>697.31099969091088</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="20"/>
+        <v>984.23192423074386</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="11"/>
+        <v>515</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="2"/>
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="12"/>
+        <v>1.8851918182675089E-7</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="13"/>
+        <v>26182.259947949671</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="14"/>
+        <v>26182.259947949671</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="15"/>
+        <v>3.8193799999999993E-5</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="16"/>
+        <v>1.9669806999999997E-2</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="17"/>
+        <v>1.6690690599999995E-7</v>
+      </c>
+      <c r="AF10" s="2">
+        <f t="shared" si="18"/>
+        <v>3.4528197545116995E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P11" t="s">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="R11" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" cm="1">
-        <f t="array" ref="Q11:Q12">MMULT(_xlfn.ANCHORARRAY(Q8),_xlfn.ANCHORARRAY(Q5))</f>
-        <v>3380.8536794162501</v>
-      </c>
-      <c r="R11">
-        <f>SQRT(Q8)</f>
-        <v>4.1793985612967628</v>
+      <c r="S11" cm="1">
+        <f t="array" ref="S11:S12">MMULT(_xlfn.ANCHORARRAY(S8),_xlfn.ANCHORARRAY(S5))</f>
+        <v>3469.5732193091972</v>
+      </c>
+      <c r="T11">
+        <f>SQRT(S8)</f>
+        <v>4.4548074657500001</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI11" cm="1">
+        <f t="array" ref="AI11:AI12">MMULT(_xlfn.ANCHORARRAY(AI8),_xlfn.ANCHORARRAY(AI5))</f>
+        <v>6.1369917608675752E-3</v>
+      </c>
+      <c r="AJ11">
+        <f>SQRT(AI8)</f>
+        <v>17703.204788659594</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="Q12">
-        <v>-542.53243962048691</v>
-      </c>
-      <c r="R12">
-        <f>SQRT(R9)</f>
-        <v>0.8105954589269887</v>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S12">
+        <v>-564.161672732027</v>
+      </c>
+      <c r="T12">
+        <f>SQRT(T9)</f>
+        <v>0.8710936569726786</v>
+      </c>
+      <c r="AI12">
+        <v>-3.5015660940920459E-6</v>
+      </c>
+      <c r="AJ12">
+        <f>SQRT(AJ9)</f>
+        <v>54.40084503895801</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P14" s="1" t="s">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="R14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q14">
-        <f>+SUM(N3:N10)/(COUNT(N3:N10)-2)</f>
-        <v>3735.3314322015522</v>
+      <c r="S14">
+        <f>+SUM(P3:P10)/(COUNT(P3:P10)-2)</f>
+        <v>1263.9829564182894</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <f>+SUM(AF4:AF10)/(COUNT(AF4:AF10)-2)</f>
+        <v>7.8556962655873308E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="P16" s="1" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="R16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q16">
-        <f>SQRT(Q14)</f>
-        <v>61.11735786338896</v>
+      <c r="S16">
+        <f>SQRT(S14)</f>
+        <v>35.552537974359716</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16">
+        <f>SQRT(AI14)</f>
+        <v>8.8632365790310089E-3</v>
       </c>
     </row>
-    <row r="22" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="P22">
+    <row r="22" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="R22">
         <v>4</v>
       </c>
-      <c r="Q22">
-        <f>P22*Q12+Q11</f>
-        <v>1210.7239209343024</v>
+      <c r="S22">
+        <f>R22*S12+S11</f>
+        <v>1212.9265283810892</v>
+      </c>
+      <c r="AH22">
+        <v>100</v>
+      </c>
+      <c r="AI22">
+        <f>AH22*AI12+AI11</f>
+        <v>5.7868351514583707E-3</v>
       </c>
     </row>
-    <row r="23" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="P23">
+    <row r="23" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="R23">
         <v>6</v>
       </c>
-      <c r="Q23">
-        <f>P23*Q12+Q11</f>
-        <v>125.65904169332862</v>
+      <c r="S23">
+        <f>R23*S12+S11</f>
+        <v>84.603182917035156</v>
+      </c>
+      <c r="AH23">
+        <v>525</v>
+      </c>
+      <c r="AI23">
+        <f>AH23*AI12+AI11</f>
+        <v>4.2986695614692511E-3</v>
       </c>
     </row>
-    <row r="25" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O25" t="s">
+    <row r="25" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="AK25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="AK26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="Q27" t="s">
         <v>24</v>
       </c>
-      <c r="P25">
-        <v>4.75</v>
+      <c r="R27">
+        <v>9.5</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH27">
+        <v>9.5</v>
       </c>
     </row>
-    <row r="26" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O26" t="s">
+    <row r="28" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="Q28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28">
+        <f>8*PI()*R27^2*H4/(I4-S11)/S12</f>
+        <v>7.1984181289070194E-3</v>
+      </c>
+      <c r="AG28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH28">
+        <f>8*PI()*AH27^2*X5/((Y5-Y3)-AI11)/AI12</f>
+        <v>27907081704301.004</v>
+      </c>
+    </row>
+    <row r="29" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="Q29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="Q30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R30">
+        <v>299792458</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH30">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="31" spans="17:37" x14ac:dyDescent="0.35">
+      <c r="Q31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P26">
-        <f>2*P25</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="27" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27">
-        <f>2*P25</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="28" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P28">
-        <f>8*3.14159*P26*P27*Q11</f>
-        <v>7668546.9119378887</v>
-      </c>
-    </row>
-    <row r="29" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P30">
-        <v>299792458</v>
-      </c>
-    </row>
-    <row r="31" spans="15:17" x14ac:dyDescent="0.35">
-      <c r="O31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P31">
-        <f>P30-P28</f>
-        <v>292123911.08806211</v>
+      <c r="R31">
+        <f>R30/R28</f>
+        <v>41646991412.753532</v>
+      </c>
+      <c r="AG31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH31">
+        <f>AH30/AH28</f>
+        <v>1.0742522674945134E-5</v>
       </c>
     </row>
   </sheetData>
@@ -2160,4 +4958,1135 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F4D34D-7E6B-44CF-8997-35BDC96247A6}">
+  <dimension ref="A1:AJ31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AI11" sqref="AI11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.1640625" customWidth="1"/>
+    <col min="36" max="36" width="11.08203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>0.05</v>
+      </c>
+      <c r="C1">
+        <v>0.5</v>
+      </c>
+      <c r="E1">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="F1">
+        <f>0.01*120</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M2">
+        <v>4.0714285714285765</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" cm="1">
+        <f t="array" ref="T2:U3">MMULT(TRANSPOSE(N4:O10),N4:O10)</f>
+        <v>8.6179540833975957E-2</v>
+      </c>
+      <c r="U2">
+        <v>6.1901533044747294</v>
+      </c>
+      <c r="X2">
+        <v>0.05</v>
+      </c>
+      <c r="Y2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2" s="6">
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB2">
+        <v>3.8081905536780898E-6</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI2" cm="1">
+        <f t="array" ref="AI2:AJ3">MMULT(TRANSPOSE(AC4:AD10),AC4:AD10)</f>
+        <v>3553061806.7092543</v>
+      </c>
+      <c r="AJ2">
+        <v>1347450135779.7776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>5.69</v>
+      </c>
+      <c r="B3">
+        <f>(A$3-A3)/1000</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>230</v>
+      </c>
+      <c r="D3">
+        <f>C3/2</f>
+        <v>115</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">120*E3</f>
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3">
+        <v>6.1901533044747294</v>
+      </c>
+      <c r="U3">
+        <v>497.6883256797683</v>
+      </c>
+      <c r="X3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI3">
+        <v>1347450135779.7776</v>
+      </c>
+      <c r="AJ3">
+        <v>543021773761956.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5.47</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ref="B4:B10" si="1">(A$3-A4)/1000</f>
+        <v>2.2000000000000063E-4</v>
+      </c>
+      <c r="C4">
+        <v>420</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="2">C4/2</f>
+        <v>210</v>
+      </c>
+      <c r="E4">
+        <v>0.27</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="I4" cm="1">
+        <f t="array" ref="I4:I10">F4:F10</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="J4" cm="1">
+        <f t="array" ref="J4:J10">D4:D10</f>
+        <v>210</v>
+      </c>
+      <c r="K4">
+        <f>K$2</f>
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <f>L$2</f>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M4">
+        <f>SQRT(L4^2+($M$2*K4)^2)</f>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N4">
+        <f>1/M4</f>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O4">
+        <f>N4*I4</f>
+        <v>3.5949932403249507</v>
+      </c>
+      <c r="P4">
+        <f>J4*N4</f>
+        <v>23.30088211321727</v>
+      </c>
+      <c r="Q4">
+        <f>(J4-T$11-T$12*I4)^2/M4^2</f>
+        <v>1.7139568190866161</v>
+      </c>
+      <c r="X4" cm="1">
+        <f t="array" ref="X4:X10">D4:D10</f>
+        <v>210</v>
+      </c>
+      <c r="Y4" cm="1">
+        <f t="array" ref="Y4:Y10">B4:B10</f>
+        <v>2.2000000000000063E-4</v>
+      </c>
+      <c r="Z4">
+        <f>T22</f>
+        <v>6.3955978560284255</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA10" si="3">AA$2</f>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB4">
+        <f>SQRT(AA4^2+($AB$2*Z4)^2)</f>
+        <v>4.7307828253851672E-5</v>
+      </c>
+      <c r="AC4">
+        <f>1/AB4</f>
+        <v>21138.150638284325</v>
+      </c>
+      <c r="AD4">
+        <f>X4*AC4</f>
+        <v>4439011.6340397084</v>
+      </c>
+      <c r="AE4">
+        <f>Y4*AC4</f>
+        <v>4.6503931404225654</v>
+      </c>
+      <c r="AF4">
+        <f>(Y4-AI$11-AI$12*X4)^2/AB4^2</f>
+        <v>0.1896425021548005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5.2</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>4.900000000000002E-4</v>
+      </c>
+      <c r="C5">
+        <v>571</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>285.5</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="I5">
+        <v>48</v>
+      </c>
+      <c r="J5">
+        <v>285.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:L10" si="4">K$2</f>
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M10" si="5">SQRT(L5^2+($M$2*K5)^2)</f>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N10" si="6">1/M5</f>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O10" si="7">N5*I5</f>
+        <v>5.325915911592519</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P10" si="8">J5*N5</f>
+        <v>31.678104015826335</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q10" si="9">(J5-T$11-T$12*I5)^2/M5^2</f>
+        <v>4.711352220851036E-2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>13</v>
+      </c>
+      <c r="T5" cm="1">
+        <f t="array" ref="T5:T6">MMULT(TRANSPOSE(N4:O10),P4:P10)</f>
+        <v>32.563555072266624</v>
+      </c>
+      <c r="X5">
+        <v>285.5</v>
+      </c>
+      <c r="Y5">
+        <v>4.900000000000002E-4</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z10" si="10">T23</f>
+        <v>4.7228277400695839</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" ref="AB4:AB10" si="11">SQRT(AA5^2+($AB$2*Z5)^2)</f>
+        <v>4.4365620551124944E-5</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" ref="AC5:AC10" si="12">1/AB5</f>
+        <v>22539.975494034734</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" ref="AD5:AD10" si="13">X5*AC5</f>
+        <v>6435163.0035469169</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" ref="AE5:AE10" si="14">Y5*AC5</f>
+        <v>11.044587992077025</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF10" si="15">(Y5-AI$11-AI$12*X5)^2/AB5^2</f>
+        <v>0.70562200861712521</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AI5" cm="1">
+        <f t="array" ref="AI5:AI6">MMULT(TRANSPOSE(AC4:AD10),AE4:AE10)</f>
+        <v>3137976.7329858691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4.92</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>7.700000000000005E-4</v>
+      </c>
+      <c r="C6">
+        <v>684</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>342</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>60</v>
+      </c>
+      <c r="J6">
+        <v>342</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="6"/>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>6.6573948894906483</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>37.947150870096692</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="9"/>
+        <v>1.4789379082288725</v>
+      </c>
+      <c r="T6">
+        <v>2548.9987606065788</v>
+      </c>
+      <c r="X6">
+        <v>342</v>
+      </c>
+      <c r="Y6">
+        <v>7.700000000000005E-4</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="10"/>
+        <v>3.7736827150972205</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="11"/>
+        <v>4.302738100652471E-5</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="12"/>
+        <v>23241.014828403317</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="13"/>
+        <v>7948427.0713139344</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="14"/>
+        <v>17.895581417870567</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="15"/>
+        <v>0.42976805423647663</v>
+      </c>
+      <c r="AI6">
+        <v>1311610548.2565107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4.7</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>9.9000000000000021E-4</v>
+      </c>
+      <c r="C7">
+        <v>787</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>393.5</v>
+      </c>
+      <c r="E7">
+        <v>0.62</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I7">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="J7">
+        <v>393.5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>8.2551696629684042</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>43.661414816909499</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="9"/>
+        <v>0.36771481196152561</v>
+      </c>
+      <c r="X7">
+        <v>393.5</v>
+      </c>
+      <c r="Y7">
+        <v>9.9000000000000021E-4</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="10"/>
+        <v>3.4246611567469736</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="11"/>
+        <v>4.2601880592920605E-5</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="12"/>
+        <v>23473.142173122182</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="13"/>
+        <v>9236681.4451235794</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="14"/>
+        <v>23.238410751390965</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="15"/>
+        <v>1.5283313413421442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>4.57</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="C8">
+        <v>864</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>432</v>
+      </c>
+      <c r="E8">
+        <v>0.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I8">
+        <v>84</v>
+      </c>
+      <c r="J8">
+        <v>432</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>9.3203528452869069</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>47.933243204332669</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="9"/>
+        <v>0.43855303223436087</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" cm="1">
+        <f t="array" ref="T8:U9">MINVERSE(_xlfn.ANCHORARRAY(T2))</f>
+        <v>108.84253860287406</v>
+      </c>
+      <c r="U8">
+        <v>-1.3537629179461945</v>
+      </c>
+      <c r="X8">
+        <v>432</v>
+      </c>
+      <c r="Y8">
+        <v>1.1200000000000001E-3</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="10"/>
+        <v>3.79417530516228</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="11"/>
+        <v>4.305350866100301E-5</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="12"/>
+        <v>23226.910676986929</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="13"/>
+        <v>10034025.412458353</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="14"/>
+        <v>26.014139958225364</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="15"/>
+        <v>0.71818908017857319</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI8" cm="1">
+        <f t="array" ref="AI8:AJ9">MINVERSE(_xlfn.ANCHORARRAY(AI2))</f>
+        <v>4.7730601376856664E-9</v>
+      </c>
+      <c r="AJ8">
+        <v>-1.1843835443381216E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>4.5</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>1.1900000000000003E-3</v>
+      </c>
+      <c r="C9">
+        <v>934</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="E9">
+        <v>0.8</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="I9">
+        <v>96</v>
+      </c>
+      <c r="J9">
+        <v>467</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="5"/>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>10.651831823185038</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>51.816723556535543</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="9"/>
+        <v>0.52457242135329341</v>
+      </c>
+      <c r="T9">
+        <v>-1.3537629179461945</v>
+      </c>
+      <c r="U9">
+        <v>1.8847136884692448E-2</v>
+      </c>
+      <c r="X9">
+        <v>467</v>
+      </c>
+      <c r="Y9">
+        <v>1.1900000000000003E-3</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="10"/>
+        <v>4.7555516910796278</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="11"/>
+        <v>4.4416286093855674E-5</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="12"/>
+        <v>22514.264202254744</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="13"/>
+        <v>10514161.382452965</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="14"/>
+        <v>26.791974400683152</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="15"/>
+        <v>0.35342886858563349</v>
+      </c>
+      <c r="AI9">
+        <v>-1.1843835443381215E-11</v>
+      </c>
+      <c r="AJ9">
+        <v>3.1230750765017459E-14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>4.34</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000005E-3</v>
+      </c>
+      <c r="C10">
+        <v>1030</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>515</v>
+      </c>
+      <c r="E10">
+        <v>0.9</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="I10">
+        <v>108</v>
+      </c>
+      <c r="J10">
+        <v>515</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>8.0404753879684776</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>9.0125343315169566</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="6"/>
+        <v>0.1109565814915108</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>11.983310801083167</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>57.142639468128067</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>0.4466853696296082</v>
+      </c>
+      <c r="X10">
+        <v>515</v>
+      </c>
+      <c r="Y10">
+        <v>1.3500000000000005E-3</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="10"/>
+        <v>6.0218562710802699</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="3"/>
+        <v>4.0556536674537102E-5</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="11"/>
+        <v>4.6591056477655203E-5</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="12"/>
+        <v>21463.34673650498</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="13"/>
+        <v>11053623.569300065</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="14"/>
+        <v>28.975518094281735</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="15"/>
+        <v>1.090638258829677</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S11" t="s">
+        <v>15</v>
+      </c>
+      <c r="T11" cm="1">
+        <f t="array" ref="T11:T12">MMULT(_xlfn.ANCHORARRAY(T8),_xlfn.ANCHORARRAY(T5))</f>
+        <v>93.559999999999491</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI11" cm="1">
+        <f t="array" ref="AI11:AI12">MMULT(_xlfn.ANCHORARRAY(AI8),_xlfn.ANCHORARRAY(AI5))</f>
+        <v>-5.5674784215318032E-4</v>
+      </c>
+      <c r="AJ11">
+        <f>SQRT(AI8)</f>
+        <v>6.9087337028471914E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="9"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="T12">
+        <v>3.9579952267303256</v>
+      </c>
+      <c r="AI12">
+        <v>3.7969020827233616E-6</v>
+      </c>
+      <c r="AJ12">
+        <f>SQRT(AJ9)</f>
+        <v>1.7672224185149264E-7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="S14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14">
+        <f>+SUM(Q4:Q10)/(COUNT(Q4:Q10)-2)</f>
+        <v>1.0035067769405575</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <f>+SUM(AF4:AF10)/(COUNT(AF4:AF10)-2)</f>
+        <v>1.003124022788886</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="S16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T16">
+        <f>SQRT(T14)*L2</f>
+        <v>8.0545611267305883</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16">
+        <f>SQRT(AI14)*AA2</f>
+        <v>4.0619837047541047E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A19" s="9"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="AG19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH19">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH20" s="3">
+        <f>8*PI()*AH19^2*AI12^(-1)/2</f>
+        <v>298694810.46307659</v>
+      </c>
+      <c r="AI20" s="5">
+        <f>AH20*SQRT((AJ12/(AI12*4))^2+2*(0.002/AH19)^2)</f>
+        <v>3476735.2391166384</v>
+      </c>
+      <c r="AJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A21" s="9"/>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S22" s="8" cm="1">
+        <f t="array" ref="S22:S28">F4:F10</f>
+        <v>32.400000000000006</v>
+      </c>
+      <c r="T22" s="10">
+        <f>SQRT($T$8+S22^2*$U$9+2*S22*$U$8)</f>
+        <v>6.3955978560284255</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S23" s="8">
+        <v>48</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" ref="T23:T28" si="16">SQRT($T$8+S23^2*$U$9+2*S23*$U$8)</f>
+        <v>4.7228277400695839</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH23">
+        <f>(AH22-AH20)/AH20*100</f>
+        <v>0.36748128808186814</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S24" s="8">
+        <v>60</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="16"/>
+        <v>3.7736827150972205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S25" s="8">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="16"/>
+        <v>3.4246611567469736</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S26" s="8">
+        <v>84</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="16"/>
+        <v>3.79417530516228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S27" s="8">
+        <v>96</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="16"/>
+        <v>4.7555516910796278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="S28" s="7">
+        <v>108</v>
+      </c>
+      <c r="T28" s="10">
+        <f t="shared" si="16"/>
+        <v>6.0218562710802699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AH29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AH30">
+        <v>200</v>
+      </c>
+      <c r="AI30">
+        <f>AH30*AI12+AI11</f>
+        <v>2.0263257439149195E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="AH31">
+        <v>550</v>
+      </c>
+      <c r="AI31">
+        <f>AH31*AI12+AI11</f>
+        <v>1.5315483033446686E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>